--- a/forecast_summary_B0BF7CL99N.xlsx
+++ b/forecast_summary_B0BF7CL99N.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>2.305427351191605</v>
       </c>
       <c r="D2" t="n">
-        <v>29.81357528642314</v>
+        <v>26.62949817644188</v>
       </c>
       <c r="E2" t="n">
         <v>21</v>
@@ -511,6 +516,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>2.06164927677519</v>
       </c>
       <c r="D3" t="n">
-        <v>28.56735016593599</v>
+        <v>29.33586832927492</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -547,6 +555,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>2.552886194321091</v>
       </c>
       <c r="D4" t="n">
-        <v>28.79497219497755</v>
+        <v>29.36441132224222</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
@@ -583,6 +594,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>1.925086180267922</v>
       </c>
       <c r="D5" t="n">
-        <v>28.34019668331305</v>
+        <v>26.76116889818527</v>
       </c>
       <c r="E5" t="n">
         <v>22</v>
@@ -619,6 +633,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.5324894521064276</v>
       </c>
       <c r="D6" t="n">
-        <v>26.8469562611272</v>
+        <v>26.79285548401105</v>
       </c>
       <c r="E6" t="n">
         <v>20</v>
@@ -655,6 +672,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>-0.1125046147298171</v>
       </c>
       <c r="D7" t="n">
-        <v>26.57351554516447</v>
+        <v>25.70731290610608</v>
       </c>
       <c r="E7" t="n">
         <v>22</v>
@@ -691,6 +711,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>-0.008896975792706164</v>
       </c>
       <c r="D8" t="n">
-        <v>25.06257940846134</v>
+        <v>26.36955026187218</v>
       </c>
       <c r="E8" t="n">
         <v>22</v>
@@ -727,6 +750,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>-0.9719697355017356</v>
       </c>
       <c r="D9" t="n">
-        <v>24.26882243733851</v>
+        <v>25.13251842607935</v>
       </c>
       <c r="E9" t="n">
         <v>22</v>
@@ -763,6 +789,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>-4.023187981703002</v>
       </c>
       <c r="D10" t="n">
-        <v>22.68958819044101</v>
+        <v>23.11435483509773</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
@@ -799,6 +828,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>-7.498606355310141</v>
       </c>
       <c r="D11" t="n">
-        <v>18.1481622436586</v>
+        <v>18.33125112568645</v>
       </c>
       <c r="E11" t="n">
         <v>21</v>
@@ -835,6 +867,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>-8.674530269945221</v>
       </c>
       <c r="D12" t="n">
-        <v>18.46011207472715</v>
+        <v>18.60460896149962</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
@@ -871,6 +906,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>-6.986703931863169</v>
       </c>
       <c r="D13" t="n">
-        <v>18.99883541521263</v>
+        <v>20.58668392676818</v>
       </c>
       <c r="E13" t="n">
         <v>22</v>
@@ -907,6 +945,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>-4.709921573990395</v>
       </c>
       <c r="D14" t="n">
-        <v>21.51165387725335</v>
+        <v>22.61655440443369</v>
       </c>
       <c r="E14" t="n">
         <v>22</v>
@@ -943,6 +984,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-4.238777153548869</v>
       </c>
       <c r="D15" t="n">
-        <v>20.52992388939197</v>
+        <v>22.43930674999225</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-5.470722931259772</v>
       </c>
       <c r="D16" t="n">
-        <v>20.15470054134235</v>
+        <v>20.82518659248685</v>
       </c>
       <c r="E16" t="n">
         <v>22</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-6.492052257388786</v>
       </c>
       <c r="D17" t="n">
-        <v>20.17357728003889</v>
+        <v>19.40840952043909</v>
       </c>
       <c r="E17" t="n">
         <v>20</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>-6.380172891038258</v>
       </c>
       <c r="D18" t="n">
-        <v>20.06091039963102</v>
+        <v>19.51613936025805</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-6.37129199455525</v>
       </c>
       <c r="D19" t="n">
-        <v>18.63868759937349</v>
+        <v>20.74766657099001</v>
       </c>
       <c r="E19" t="n">
         <v>19</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-8.094047370503421</v>
       </c>
       <c r="D20" t="n">
-        <v>17.31910384215747</v>
+        <v>18.31711990236301</v>
       </c>
       <c r="E20" t="n">
         <v>22</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-11.43871075867625</v>
       </c>
       <c r="D21" t="n">
-        <v>13.15374517959104</v>
+        <v>14.7383442565236</v>
       </c>
       <c r="E21" t="n">
         <v>19</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>X670E AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1433,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-12-01</t>
+          <t>2024-12-08</t>
         </is>
       </c>
     </row>
